--- a/data_sets/samleDataRefriRoom_transpose_new.xlsx
+++ b/data_sets/samleDataRefriRoom_transpose_new.xlsx
@@ -812,10 +812,10 @@
   </sheetPr>
   <dimension ref="A1:L164"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A100" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A100" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B100" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A100" activeCellId="0" sqref="A100"/>
-      <selection pane="topRight" activeCell="C140" activeCellId="0" sqref="C140"/>
+      <selection pane="topRight" activeCell="C140" activeCellId="1" sqref="L63:O63 C140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5774,8 +5774,8 @@
   </sheetPr>
   <dimension ref="A1:FH98"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="CZ1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="DI30" activeCellId="0" sqref="DI30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="CZ1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="DI30" activeCellId="1" sqref="L63:O63 DI30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10547,11 +10547,11 @@
   </sheetPr>
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="40" zoomScaleNormal="40" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P65" activeCellId="0" sqref="P65"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K1" activeCellId="1" sqref="L63:O63 K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -10761,11 +10761,11 @@
   </sheetPr>
   <dimension ref="A1:L81"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L20" activeCellId="0" sqref="L20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E34" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L63" activeCellId="0" sqref="L63:O63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="1" style="0" width="15.6"/>
   </cols>
@@ -12871,9 +12871,6 @@
         <v>0.04</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>1.092</v>
-      </c>
-      <c r="E56" s="0" t="n">
         <v>1.092</v>
       </c>
       <c r="F56" s="0" t="n">
